--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-100541.6751837655</v>
+        <v>-103240.7272776734</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C2" t="n">
-        <v>19.72734108435023</v>
+        <v>145.1986582043252</v>
       </c>
       <c r="D2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>187.52558716632</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>125.2919912979023</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>28.5715882696838</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550658</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714239</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,28 +859,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845815</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>15.10628586722677</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>52.62893363309646</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>187.52558716632</v>
-      </c>
-      <c r="V4" t="n">
-        <v>187.52558716632</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23.88890396870591</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.1217610028605</v>
+        <v>12.12176100286048</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>67.83787354281453</v>
       </c>
       <c r="I5" t="n">
-        <v>87.84129258094046</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>136.5335673127886</v>
       </c>
       <c r="T5" t="n">
         <v>209.1711248816494</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0911747868545</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>135.6415446830818</v>
       </c>
       <c r="H6" t="n">
-        <v>95.79797317841046</v>
+        <v>95.79797317841047</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>30.79801895224386</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>140.0697787646034</v>
       </c>
       <c r="T6" t="n">
         <v>193.3045852332498</v>
       </c>
       <c r="U6" t="n">
-        <v>26.21628204371653</v>
+        <v>16.79302694946021</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>114.3077371740573</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>199.15003117566</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>85.643570776369</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,10 +1145,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>180.2158708563817</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>263.9656533758505</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>8.794302634933945</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>49.57372789032946</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -1348,7 +1348,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>240.104445829891</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184555</v>
+        <v>24.1466220418456</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>76.7478137364553</v>
+        <v>98.88510599615213</v>
       </c>
       <c r="T11" t="n">
         <v>201.9388203544492</v>
@@ -1464,10 +1464,10 @@
         <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.2605838181255</v>
+        <v>87.26058381812551</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530788</v>
+        <v>10.48847705530792</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>147.8303609590432</v>
+        <v>105.5089280640925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927373</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905241</v>
       </c>
       <c r="S13" t="n">
         <v>186.2346889920369</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1661,13 +1661,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881305</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174125</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>44.7513807668957</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229291</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417117</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701358</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>143.4157347120548</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,13 +2245,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>99.97427419833892</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>206.5509998577708</v>
+        <v>217.4054503272876</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>63.16281301712596</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936199</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>69.82863813027194</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>20.88994825141597</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>196.9607874088663</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634796</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3190,16 +3190,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>83.06560892428088</v>
       </c>
       <c r="G34" t="n">
-        <v>99.97427419833812</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3427,7 +3427,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>20.88994825141589</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>35.41770597126688</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>134.3852063573446</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179326</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703258</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3980,7 +3980,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812027</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.97427419833807</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>560.6825636487949</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="C2" t="n">
-        <v>540.7559564928856</v>
+        <v>224.5974673148101</v>
       </c>
       <c r="D2" t="n">
-        <v>351.3361714764008</v>
+        <v>224.5974673148101</v>
       </c>
       <c r="E2" t="n">
-        <v>351.3361714764008</v>
+        <v>224.5974673148101</v>
       </c>
       <c r="F2" t="n">
-        <v>344.3906707271973</v>
+        <v>217.6519665656067</v>
       </c>
       <c r="G2" t="n">
-        <v>331.1605361513811</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
         <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678535</v>
+        <v>21.03371160678512</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159059007</v>
+        <v>80.81213159058984</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079192</v>
+        <v>191.874309407919</v>
       </c>
       <c r="M2" t="n">
         <v>347.1218190644761</v>
@@ -4346,34 +4346,34 @@
         <v>649.4845259985586</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020267</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.10234866528</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.10234866528</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.10234866528</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.10234866528</v>
       </c>
       <c r="W2" t="n">
-        <v>750.1023486652798</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="X2" t="n">
-        <v>750.1023486652798</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="Y2" t="n">
-        <v>560.6825636487949</v>
+        <v>560.6825636487952</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>365.284170247775</v>
+        <v>192.7966468059547</v>
       </c>
       <c r="C3" t="n">
-        <v>190.831140966648</v>
+        <v>192.7966468059547</v>
       </c>
       <c r="D3" t="n">
-        <v>190.831140966648</v>
+        <v>43.86223714470339</v>
       </c>
       <c r="E3" t="n">
-        <v>64.27357399906982</v>
+        <v>43.86223714470339</v>
       </c>
       <c r="F3" t="n">
-        <v>64.27357399906982</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>64.27357399906982</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>64.27357399906982</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
         <v>15.0020469733056</v>
@@ -4413,46 +4413,46 @@
         <v>67.13418877024242</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772652</v>
+        <v>183.5548280772653</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140248</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476349</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843279</v>
+        <v>722.9192922843281</v>
       </c>
       <c r="S3" t="n">
-        <v>722.9192922843279</v>
+        <v>571.6362168389244</v>
       </c>
       <c r="T3" t="n">
-        <v>722.9192922843279</v>
+        <v>571.6362168389244</v>
       </c>
       <c r="U3" t="n">
-        <v>722.9192922843279</v>
+        <v>571.6362168389244</v>
       </c>
       <c r="V3" t="n">
-        <v>722.9192922843279</v>
+        <v>382.2164318224395</v>
       </c>
       <c r="W3" t="n">
-        <v>722.9192922843279</v>
+        <v>192.7966468059547</v>
       </c>
       <c r="X3" t="n">
-        <v>722.9192922843279</v>
+        <v>192.7966468059547</v>
       </c>
       <c r="Y3" t="n">
-        <v>533.499507267843</v>
+        <v>192.7966468059547</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>352.6270533382975</v>
+        <v>183.9382299012125</v>
       </c>
       <c r="C4" t="n">
-        <v>183.6908704103906</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D4" t="n">
-        <v>183.6908704103906</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E4" t="n">
-        <v>183.6908704103906</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
-        <v>183.6908704103906</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
         <v>15.0020469733056</v>
@@ -4492,46 +4492,46 @@
         <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884406</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M4" t="n">
-        <v>373.5399563830974</v>
+        <v>285.9838492295953</v>
       </c>
       <c r="N4" t="n">
-        <v>559.1902876777541</v>
+        <v>471.6341805242521</v>
       </c>
       <c r="O4" t="n">
-        <v>721.9284911143043</v>
+        <v>634.3723839608023</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652798</v>
+        <v>750.10234866528</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846275</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R4" t="n">
-        <v>731.4666233712671</v>
+        <v>615.938338957512</v>
       </c>
       <c r="S4" t="n">
-        <v>731.4666233712671</v>
+        <v>562.7777999341822</v>
       </c>
       <c r="T4" t="n">
-        <v>731.4666233712671</v>
+        <v>373.3580149176973</v>
       </c>
       <c r="U4" t="n">
-        <v>542.0468383547823</v>
+        <v>373.3580149176973</v>
       </c>
       <c r="V4" t="n">
-        <v>352.6270533382975</v>
+        <v>373.3580149176973</v>
       </c>
       <c r="W4" t="n">
-        <v>352.6270533382975</v>
+        <v>373.3580149176973</v>
       </c>
       <c r="X4" t="n">
-        <v>352.6270533382975</v>
+        <v>183.9382299012125</v>
       </c>
       <c r="Y4" t="n">
-        <v>352.6270533382975</v>
+        <v>183.9382299012125</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1311.83094897197</v>
+        <v>125.2789685085265</v>
       </c>
       <c r="C5" t="n">
-        <v>1311.83094897197</v>
+        <v>125.2789685085265</v>
       </c>
       <c r="D5" t="n">
-        <v>953.5652503652195</v>
+        <v>125.2789685085265</v>
       </c>
       <c r="E5" t="n">
-        <v>953.5652503652195</v>
+        <v>125.2789685085265</v>
       </c>
       <c r="F5" t="n">
-        <v>542.5793455756119</v>
+        <v>118.333467759323</v>
       </c>
       <c r="G5" t="n">
-        <v>126.2947385020154</v>
+        <v>106.0892647261306</v>
       </c>
       <c r="H5" t="n">
-        <v>126.2947385020154</v>
+        <v>37.56616013742904</v>
       </c>
       <c r="I5" t="n">
-        <v>37.56616013742911</v>
+        <v>37.56616013742904</v>
       </c>
       <c r="J5" t="n">
-        <v>125.6123058620869</v>
+        <v>125.6123058620865</v>
       </c>
       <c r="K5" t="n">
-        <v>308.309172940571</v>
+        <v>308.3091729405696</v>
       </c>
       <c r="L5" t="n">
-        <v>571.8625535714458</v>
+        <v>571.8625535714436</v>
       </c>
       <c r="M5" t="n">
-        <v>896.7859082672686</v>
+        <v>896.7859082672661</v>
       </c>
       <c r="N5" t="n">
-        <v>1231.580670917812</v>
+        <v>1231.580670917809</v>
       </c>
       <c r="O5" t="n">
-        <v>1534.382610379519</v>
+        <v>1534.382610379516</v>
       </c>
       <c r="P5" t="n">
-        <v>1758.316059280668</v>
+        <v>1758.316059280665</v>
       </c>
       <c r="Q5" t="n">
-        <v>1878.308006871455</v>
+        <v>1878.308006871452</v>
       </c>
       <c r="R5" t="n">
-        <v>1878.308006871455</v>
+        <v>1878.308006871452</v>
       </c>
       <c r="S5" t="n">
-        <v>1878.308006871455</v>
+        <v>1740.39531261611</v>
       </c>
       <c r="T5" t="n">
-        <v>1667.024042344537</v>
+        <v>1529.111348089191</v>
       </c>
       <c r="U5" t="n">
-        <v>1667.024042344537</v>
+        <v>1275.48389880954</v>
       </c>
       <c r="V5" t="n">
-        <v>1335.961155000966</v>
+        <v>1275.48389880954</v>
       </c>
       <c r="W5" t="n">
-        <v>1335.961155000966</v>
+        <v>1275.48389880954</v>
       </c>
       <c r="X5" t="n">
-        <v>1335.961155000966</v>
+        <v>902.01814054846</v>
       </c>
       <c r="Y5" t="n">
-        <v>1335.961155000966</v>
+        <v>511.8788085726483</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>751.5684931663108</v>
+        <v>451.386970620636</v>
       </c>
       <c r="C6" t="n">
-        <v>577.1154638851838</v>
+        <v>451.386970620636</v>
       </c>
       <c r="D6" t="n">
-        <v>577.1154638851838</v>
+        <v>302.4525609593848</v>
       </c>
       <c r="E6" t="n">
-        <v>417.8780088797283</v>
+        <v>302.4525609593848</v>
       </c>
       <c r="F6" t="n">
-        <v>271.3434509066133</v>
+        <v>302.4525609593848</v>
       </c>
       <c r="G6" t="n">
-        <v>134.331789610571</v>
+        <v>165.4408996633425</v>
       </c>
       <c r="H6" t="n">
-        <v>37.56616013742911</v>
+        <v>68.67527019020062</v>
       </c>
       <c r="I6" t="n">
-        <v>37.56616013742911</v>
+        <v>37.56616013742904</v>
       </c>
       <c r="J6" t="n">
-        <v>196.0181193845648</v>
+        <v>71.18799439755979</v>
       </c>
       <c r="K6" t="n">
-        <v>529.8710030987543</v>
+        <v>206.8078890800181</v>
       </c>
       <c r="L6" t="n">
-        <v>758.5512291889959</v>
+        <v>671.6891207807023</v>
       </c>
       <c r="M6" t="n">
-        <v>1044.767135059137</v>
+        <v>957.9050266508428</v>
       </c>
       <c r="N6" t="n">
-        <v>1352.966969211399</v>
+        <v>1266.104860803105</v>
       </c>
       <c r="O6" t="n">
-        <v>1612.689810537063</v>
+        <v>1525.827702128768</v>
       </c>
       <c r="P6" t="n">
-        <v>1801.807222027793</v>
+        <v>1714.945113619498</v>
       </c>
       <c r="Q6" t="n">
-        <v>1878.308006871455</v>
+        <v>1878.308006871452</v>
       </c>
       <c r="R6" t="n">
-        <v>1878.308006871455</v>
+        <v>1878.308006871452</v>
       </c>
       <c r="S6" t="n">
-        <v>1878.308006871455</v>
+        <v>1736.823381856701</v>
       </c>
       <c r="T6" t="n">
-        <v>1683.050850070193</v>
+        <v>1541.566225055438</v>
       </c>
       <c r="U6" t="n">
-        <v>1656.569757096742</v>
+        <v>1524.603571571135</v>
       </c>
       <c r="V6" t="n">
-        <v>1421.417648864999</v>
+        <v>1289.451463339392</v>
       </c>
       <c r="W6" t="n">
-        <v>1167.180292136798</v>
+        <v>1035.214106611191</v>
       </c>
       <c r="X6" t="n">
-        <v>959.3287919312647</v>
+        <v>827.362606405658</v>
       </c>
       <c r="Y6" t="n">
-        <v>751.5684931663108</v>
+        <v>619.6023076407041</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>597.9482014119444</v>
+        <v>356.6189824776717</v>
       </c>
       <c r="C7" t="n">
-        <v>482.4858406300683</v>
+        <v>187.6827995497648</v>
       </c>
       <c r="D7" t="n">
-        <v>332.3692012177326</v>
+        <v>37.56616013742904</v>
       </c>
       <c r="E7" t="n">
-        <v>184.4561076353395</v>
+        <v>37.56616013742904</v>
       </c>
       <c r="F7" t="n">
-        <v>37.56616013742911</v>
+        <v>37.56616013742904</v>
       </c>
       <c r="G7" t="n">
-        <v>37.56616013742911</v>
+        <v>37.56616013742904</v>
       </c>
       <c r="H7" t="n">
-        <v>37.56616013742911</v>
+        <v>37.56616013742904</v>
       </c>
       <c r="I7" t="n">
-        <v>37.56616013742911</v>
+        <v>37.56616013742904</v>
       </c>
       <c r="J7" t="n">
-        <v>45.01194249256548</v>
+        <v>45.01194249256532</v>
       </c>
       <c r="K7" t="n">
-        <v>187.0844868696026</v>
+        <v>187.0844868696023</v>
       </c>
       <c r="L7" t="n">
-        <v>424.4148644101285</v>
+        <v>424.4148644101281</v>
       </c>
       <c r="M7" t="n">
-        <v>685.0355944467492</v>
+        <v>685.0355944467485</v>
       </c>
       <c r="N7" t="n">
-        <v>944.893962460926</v>
+        <v>944.8939624609252</v>
       </c>
       <c r="O7" t="n">
-        <v>1168.898929103174</v>
+        <v>1168.898929103173</v>
       </c>
       <c r="P7" t="n">
-        <v>1337.05319389053</v>
+        <v>1337.053193890529</v>
       </c>
       <c r="Q7" t="n">
-        <v>1370.039410552809</v>
+        <v>1370.039410552808</v>
       </c>
       <c r="R7" t="n">
-        <v>1370.039410552809</v>
+        <v>1370.039410552808</v>
       </c>
       <c r="S7" t="n">
-        <v>1370.039410552809</v>
+        <v>1168.877762900627</v>
       </c>
       <c r="T7" t="n">
-        <v>1370.039410552809</v>
+        <v>1168.877762900627</v>
       </c>
       <c r="U7" t="n">
-        <v>1370.039410552809</v>
+        <v>1168.877762900627</v>
       </c>
       <c r="V7" t="n">
-        <v>1115.354922346922</v>
+        <v>914.1932746947397</v>
       </c>
       <c r="W7" t="n">
-        <v>825.9377523099618</v>
+        <v>624.7761046577791</v>
       </c>
       <c r="X7" t="n">
-        <v>597.9482014119444</v>
+        <v>538.2674473079114</v>
       </c>
       <c r="Y7" t="n">
-        <v>597.9482014119444</v>
+        <v>538.2674473079114</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1182.87310169792</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="C8" t="n">
-        <v>813.9105847575083</v>
+        <v>1399.987221986177</v>
       </c>
       <c r="D8" t="n">
-        <v>455.6448861507579</v>
+        <v>1041.721523379426</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251364</v>
+        <v>655.933270781182</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>648.9877700319786</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>233.2830197562674</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>2295.707355293236</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="W8" t="n">
-        <v>1942.938700023122</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="X8" t="n">
-        <v>1569.472941762042</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="Y8" t="n">
-        <v>1569.472941762042</v>
+        <v>1768.949738926588</v>
       </c>
     </row>
     <row r="9">
@@ -4869,37 +4869,37 @@
         <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182521</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380231</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694948</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828715</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601822</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>673.0360657270445</v>
+        <v>475.205037342667</v>
       </c>
       <c r="C10" t="n">
-        <v>673.0360657270445</v>
+        <v>475.205037342667</v>
       </c>
       <c r="D10" t="n">
-        <v>522.9194263147087</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="E10" t="n">
-        <v>375.0063327323156</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F10" t="n">
-        <v>228.1163852344053</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G10" t="n">
-        <v>60.12992054268386</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
-        <v>60.12992054268386</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1586.371647458003</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234358</v>
+        <v>1389.742899617864</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.838891429094</v>
+        <v>1166.764418812599</v>
       </c>
       <c r="U10" t="n">
-        <v>927.7205539329314</v>
+        <v>877.6460813164368</v>
       </c>
       <c r="V10" t="n">
-        <v>673.0360657270445</v>
+        <v>877.6460813164368</v>
       </c>
       <c r="W10" t="n">
-        <v>673.0360657270445</v>
+        <v>877.6460813164368</v>
       </c>
       <c r="X10" t="n">
-        <v>673.0360657270445</v>
+        <v>877.6460813164368</v>
       </c>
       <c r="Y10" t="n">
-        <v>673.0360657270445</v>
+        <v>656.8535021729067</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1507.851230405994</v>
+        <v>1872.090169197694</v>
       </c>
       <c r="C11" t="n">
-        <v>1138.888713465583</v>
+        <v>1503.127652257283</v>
       </c>
       <c r="D11" t="n">
-        <v>780.623014858832</v>
+        <v>1144.861953650532</v>
       </c>
       <c r="E11" t="n">
-        <v>394.8347622605879</v>
+        <v>759.0737010522876</v>
       </c>
       <c r="F11" t="n">
-        <v>394.8347622605878</v>
+        <v>759.0737010522874</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605878</v>
+        <v>344.4579364934328</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309162</v>
+        <v>101.9281932309163</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592074</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="J11" t="n">
-        <v>304.406079670689</v>
+        <v>304.4060796706899</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656958</v>
+        <v>695.1615405656962</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625329</v>
+        <v>1216.83000462533</v>
       </c>
       <c r="M11" t="n">
         <v>1828.956123087831</v>
@@ -5057,34 +5057,34 @@
         <v>3033.988513535296</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479995</v>
+        <v>3493.127967479994</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464062</v>
+        <v>3789.74982946406</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796037</v>
+        <v>3876.883295796036</v>
       </c>
       <c r="S11" t="n">
-        <v>3799.360251617799</v>
+        <v>3776.999350345377</v>
       </c>
       <c r="T11" t="n">
-        <v>3595.381645199164</v>
+        <v>3573.020743926742</v>
       </c>
       <c r="U11" t="n">
-        <v>3341.887703320692</v>
+        <v>3319.52680204827</v>
       </c>
       <c r="V11" t="n">
-        <v>3010.824815977121</v>
+        <v>2988.4639147047</v>
       </c>
       <c r="W11" t="n">
-        <v>2658.056160707008</v>
+        <v>2635.695259434586</v>
       </c>
       <c r="X11" t="n">
-        <v>2284.590402445928</v>
+        <v>2262.229501173506</v>
       </c>
       <c r="Y11" t="n">
-        <v>1894.451070470116</v>
+        <v>1872.090169197694</v>
       </c>
     </row>
     <row r="12">
@@ -5103,43 +5103,43 @@
         <v>618.1648558508402</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9274008453847</v>
+        <v>458.9274008453848</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722696</v>
+        <v>312.3928428722697</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2740910406009</v>
+        <v>176.274091040601</v>
       </c>
       <c r="H12" t="n">
-        <v>88.1320871839085</v>
+        <v>88.13208718390852</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592074</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870413</v>
+        <v>193.8410919870412</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046656</v>
+        <v>193.8410919870412</v>
       </c>
       <c r="L12" t="n">
-        <v>889.4740370626173</v>
+        <v>612.5381326449926</v>
       </c>
       <c r="M12" t="n">
-        <v>1397.430603019146</v>
+        <v>1120.494698601521</v>
       </c>
       <c r="N12" t="n">
-        <v>1933.239912720356</v>
+        <v>1656.30400830273</v>
       </c>
       <c r="O12" t="n">
-        <v>2014.935408783255</v>
+        <v>2000.207762193668</v>
       </c>
       <c r="P12" t="n">
-        <v>2371.16628502803</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>485.5244216888906</v>
+        <v>184.1123407281355</v>
       </c>
       <c r="C13" t="n">
-        <v>485.5244216888906</v>
+        <v>184.1123407281355</v>
       </c>
       <c r="D13" t="n">
-        <v>336.2008247605645</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="E13" t="n">
-        <v>336.2008247605645</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="F13" t="n">
-        <v>336.2008247605645</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="G13" t="n">
-        <v>168.7028415717528</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7028415717528</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592074</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758649</v>
+        <v>136.8552218758648</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648145</v>
+        <v>364.1690246648143</v>
       </c>
       <c r="L13" t="n">
-        <v>710.578865434481</v>
+        <v>710.5788654344808</v>
       </c>
       <c r="M13" t="n">
         <v>1086.208595376939</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336948</v>
+        <v>1458.341306336947</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818665</v>
+        <v>1786.049800818664</v>
       </c>
       <c r="P13" t="n">
         <v>2042.940349010722</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742808</v>
+        <v>2137.362968742807</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742808</v>
+        <v>2056.743466925583</v>
       </c>
       <c r="S13" t="n">
-        <v>1949.247121276104</v>
+        <v>1868.627619458879</v>
       </c>
       <c r="T13" t="n">
-        <v>1728.355788710544</v>
+        <v>1647.736286893319</v>
       </c>
       <c r="U13" t="n">
-        <v>1439.264095659995</v>
+        <v>1358.64459384277</v>
       </c>
       <c r="V13" t="n">
-        <v>1184.579607454108</v>
+        <v>1103.960105636883</v>
       </c>
       <c r="W13" t="n">
-        <v>895.1624374171477</v>
+        <v>814.5429355999227</v>
       </c>
       <c r="X13" t="n">
-        <v>667.1728865191303</v>
+        <v>586.5533847019053</v>
       </c>
       <c r="Y13" t="n">
-        <v>667.1728865191303</v>
+        <v>365.7608055583752</v>
       </c>
     </row>
     <row r="14">
@@ -5264,55 +5264,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852888</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1654.485273605118</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2206.395003844405</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048583</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>549.614540988802</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>549.614540988802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,52 +5501,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123002</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452603</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718124</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.528408326419</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>550.637687073287</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C19" t="n">
-        <v>550.637687073287</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797746</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138422</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703121</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="20">
@@ -5741,31 +5741,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5844,13 +5844,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>513.853600740072</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121651</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282754</v>
+        <v>194.8007783998294</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998294</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998294</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5926,7 +5926,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1882.204779583152</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442288</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703117</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,61 +5975,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>631.7012443408905</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429801</v>
+        <v>198.0274703142546</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797742</v>
@@ -6157,10 +6157,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703107</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6218,25 +6218,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121645</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.4026036630037</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="29">
@@ -6461,22 +6461,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>718.5507239167109</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>549.614540988804</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="D31" t="n">
-        <v>549.614540988804</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>549.614540988804</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782961</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038348</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855603</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199801</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>900.1991887469505</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6692,28 +6692,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6725,25 +6725,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400704</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121635</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121635</v>
       </c>
       <c r="E34" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121635</v>
       </c>
       <c r="F34" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6862,7 +6862,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6898,10 +6898,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703102</v>
       </c>
     </row>
     <row r="35">
@@ -6926,28 +6926,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6977,7 +6977,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7020,22 +7020,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>727.9786782557278</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C37" t="n">
-        <v>559.0424953278209</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D37" t="n">
-        <v>408.9258559154852</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E37" t="n">
-        <v>261.012762333092</v>
+        <v>197.0043242297713</v>
       </c>
       <c r="F37" t="n">
-        <v>261.012762333092</v>
+        <v>197.0043242297713</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,49 +7096,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2411.187623003224</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2191.586158026165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1902.510931370363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1647.826443164476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1130.419722229498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>909.6271430859675</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703113</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>526.5658826424044</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>376.4492432300686</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
         <v>826.1405381797744</v>
@@ -7345,37 +7345,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138414</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703113</v>
       </c>
     </row>
     <row r="41">
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400705</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121636</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121636</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121636</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782955</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138404</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703103</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7640,25 +7640,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7673,25 +7673,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7719,19 +7719,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438176</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400714</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7822,13 +7822,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
         <v>2197.062545487567</v>
@@ -7846,10 +7846,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703112</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265842</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,13 +8137,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402855</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457085</v>
+        <v>82.97369176944369</v>
       </c>
       <c r="N4" t="n">
         <v>163.8604018711117</v>
@@ -8152,7 +8152,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>46.56605103777624</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>15.76852197496453</v>
+        <v>15.7685219749647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>200.2353424562939</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>238.5868743539829</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>87.7395034427187</v>
       </c>
       <c r="R6" t="n">
-        <v>40.00791436438833</v>
+        <v>40.00791436438843</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878355</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>265.0304328515147</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154991</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4696069132659</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>49.87305750948381</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>22.13729225969681</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7851120591691938</v>
+        <v>43.10654495411984</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.25352389927376</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905237</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>103.8640922513167</v>
+        <v>46.45968844823062</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185672</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>36.4162454698825</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.54986409393099</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409392993</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>10.85445046951742</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>116.6691671648113</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>62.35543909864897</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>110.0033420516654</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>127.7255247667964</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823062</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>21.62386594322851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,16 +25078,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909865036</v>
       </c>
       <c r="G34" t="n">
-        <v>65.54986409393072</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>144.634190040853</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>145.6085800303777</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25546,25 +25546,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>12.0487562892246</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194236</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194309</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405076</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823111</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>328416.7079457131</v>
+      </c>
+      <c r="C2" t="n">
         <v>328416.7079457133</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>328416.7079457134</v>
-      </c>
-      <c r="D2" t="n">
-        <v>328416.7079457136</v>
       </c>
       <c r="E2" t="n">
         <v>293035.6977097585</v>
       </c>
       <c r="F2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="G2" t="n">
         <v>322858.6398760024</v>
@@ -26332,22 +26332,22 @@
         <v>322858.6398760023</v>
       </c>
       <c r="I2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760025</v>
       </c>
       <c r="J2" t="n">
         <v>322858.6398760023</v>
       </c>
       <c r="K2" t="n">
+        <v>322858.6398760023</v>
+      </c>
+      <c r="L2" t="n">
+        <v>322858.6398760023</v>
+      </c>
+      <c r="M2" t="n">
         <v>322858.6398760024</v>
       </c>
-      <c r="L2" t="n">
-        <v>322858.6398760024</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>322858.6398760023</v>
-      </c>
-      <c r="N2" t="n">
-        <v>322858.6398760024</v>
       </c>
       <c r="O2" t="n">
         <v>322858.6398760023</v>
@@ -26363,43 +26363,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208453</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>312214.8578912896</v>
+        <v>312214.8578912886</v>
       </c>
       <c r="D3" t="n">
-        <v>175413.4991972652</v>
+        <v>175413.4991972661</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545776</v>
+        <v>313577.1573545772</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704289</v>
+        <v>189308.2687704293</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854461</v>
+        <v>49064.94472854442</v>
       </c>
       <c r="K3" t="n">
-        <v>72591.00846030175</v>
+        <v>72591.0084603015</v>
       </c>
       <c r="L3" t="n">
-        <v>43280.542799255</v>
+        <v>43280.54279925526</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273088</v>
+        <v>81897.4037127308</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202358</v>
+        <v>49839.57413202363</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>278169.1766632064</v>
       </c>
       <c r="C4" t="n">
-        <v>195152.1081057576</v>
+        <v>195152.1081057579</v>
       </c>
       <c r="D4" t="n">
-        <v>146359.3674130576</v>
+        <v>146359.3674130577</v>
       </c>
       <c r="E4" t="n">
         <v>14111.33351720851</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685499</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685501</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685506</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685503</v>
       </c>
       <c r="J4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
+        <v>14216.75207685505</v>
+      </c>
+      <c r="L4" t="n">
+        <v>14216.75207685505</v>
+      </c>
+      <c r="M4" t="n">
         <v>14216.75207685507</v>
       </c>
-      <c r="L4" t="n">
-        <v>14216.7520768551</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
+        <v>14216.75207685506</v>
+      </c>
+      <c r="O4" t="n">
         <v>14216.75207685505</v>
       </c>
-      <c r="N4" t="n">
-        <v>14216.75207685512</v>
-      </c>
-      <c r="O4" t="n">
-        <v>14216.75207685506</v>
-      </c>
       <c r="P4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685509</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>79427.52208638305</v>
+        <v>79427.52208638299</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738569</v>
+        <v>85137.48506738566</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-598095.171649952</v>
+        <v>-598095.1716499523</v>
       </c>
       <c r="C6" t="n">
-        <v>-258377.7801377169</v>
+        <v>-258377.7801377161</v>
       </c>
       <c r="D6" t="n">
-        <v>-86293.93110445398</v>
+        <v>-86293.93110445503</v>
       </c>
       <c r="E6" t="n">
-        <v>-119790.2782294133</v>
+        <v>-120011.4095433876</v>
       </c>
       <c r="F6" t="n">
-        <v>18211.08920481155</v>
+        <v>18176.35127937526</v>
       </c>
       <c r="G6" t="n">
-        <v>207519.3579752401</v>
+        <v>207484.6200498047</v>
       </c>
       <c r="H6" t="n">
-        <v>207519.3579752404</v>
+        <v>207484.6200498043</v>
       </c>
       <c r="I6" t="n">
-        <v>207519.3579752402</v>
+        <v>207484.6200498046</v>
       </c>
       <c r="J6" t="n">
-        <v>158454.4132466955</v>
+        <v>158419.67532126</v>
       </c>
       <c r="K6" t="n">
-        <v>134928.3495149385</v>
+        <v>134893.611589503</v>
       </c>
       <c r="L6" t="n">
-        <v>164238.8151759852</v>
+        <v>164204.0772505491</v>
       </c>
       <c r="M6" t="n">
-        <v>125621.9542625092</v>
+        <v>125587.2163370738</v>
       </c>
       <c r="N6" t="n">
-        <v>157679.7838432166</v>
+        <v>157645.0459177808</v>
       </c>
       <c r="O6" t="n">
-        <v>207519.3579752402</v>
+        <v>207484.6200498044</v>
       </c>
       <c r="P6" t="n">
-        <v>207519.3579752402</v>
+        <v>207484.6200498044</v>
       </c>
     </row>
   </sheetData>
@@ -26710,10 +26710,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.519713256482332e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.519713256482332e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>791.2679074282997</v>
+        <v>791.2679074282991</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214951</v>
+        <v>1202.24123721495</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26790,25 +26790,25 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>469.5770017178638</v>
+        <v>469.5770017178629</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490093</v>
+        <v>969.2208239490091</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.519713256482332e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26957,25 +26957,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>242.7979665153952</v>
+        <v>242.7979665153945</v>
       </c>
       <c r="D3" t="n">
-        <v>142.7969846892394</v>
+        <v>142.79698468924</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974115</v>
+        <v>268.1763450974111</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267234</v>
+        <v>165.7342631267238</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>282.0514145515439</v>
+        <v>282.0514145515429</v>
       </c>
       <c r="D4" t="n">
-        <v>171.007830382175</v>
+        <v>171.0078303821758</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489704</v>
+        <v>328.6359918489703</v>
       </c>
       <c r="F4" t="n">
         <v>203.4874641506393</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>282.0514145515439</v>
+        <v>282.0514145515429</v>
       </c>
       <c r="L4" t="n">
-        <v>171.0078303821748</v>
+        <v>171.0078303821758</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489707</v>
+        <v>328.6359918489703</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506391</v>
+        <v>203.4874641506393</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.519713256482332e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>282.0514145515439</v>
+        <v>282.0514145515429</v>
       </c>
       <c r="L4" t="n">
-        <v>171.007830382175</v>
+        <v>171.0078303821758</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489704</v>
+        <v>328.6359918489703</v>
       </c>
       <c r="N4" t="n">
         <v>203.4874641506393</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971606</v>
       </c>
       <c r="C2" t="n">
-        <v>345.5455506866573</v>
+        <v>220.0742335666824</v>
       </c>
       <c r="D2" t="n">
-        <v>167.157454454363</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27397,7 +27397,7 @@
         <v>129.3682389399023</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368137</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>161.715381551093</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897336</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,19 +27455,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>32.3530891574986</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>116.4976241237001</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27476,7 +27476,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>195.4095977920013</v>
@@ -27515,16 +27515,16 @@
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310526</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.1693959945996</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098441</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
@@ -27558,7 +27558,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553086</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
-        <v>117.7160837434636</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>154.1513221623998</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>36.19408632378009</v>
       </c>
       <c r="U4" t="n">
-        <v>98.73949432713032</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>64.61205615750805</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>38.18406822271714</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>358.8449376947747</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>306.8976264094352</v>
+        <v>239.0597528666207</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>87.84129258094056</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>136.5335673127885</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0911747868545</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27692,19 +27692,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>30.79801895224382</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,13 +27743,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>140.0697787646034</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>199.6131281635656</v>
+        <v>209.0363832578219</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>52.9390839245705</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.5641028040799</v>
       </c>
       <c r="H7" t="n">
-        <v>149.5409427785071</v>
+        <v>149.5409427785072</v>
       </c>
       <c r="I7" t="n">
         <v>112.5404054555728</v>
@@ -27822,7 +27822,7 @@
         <v>113.1358328502782</v>
       </c>
       <c r="S7" t="n">
-        <v>199.15003117566</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>221.8489350595717</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>140.0660846126681</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>120.8026817060237</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -27904,19 +27904,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>63.78660509428437</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,10 +28017,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>96.00229256896664</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>51.98384452924417</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28068,7 +28068,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>5.055922180081919e-13</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28494,7 +28494,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>2.201758775299822e-12</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-1.676880856393836e-12</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-8.722622624190989e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -29010,7 +29010,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30700,7 +30700,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043117</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470023</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622679</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
         <v>317.0679923244294</v>
@@ -31075,10 +31075,10 @@
         <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924577</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31121,7 +31121,7 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
         <v>40.6178210959085</v>
@@ -31130,7 +31130,7 @@
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
         <v>256.1509851405032</v>
@@ -31139,7 +31139,7 @@
         <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
         <v>280.6872536292673</v>
@@ -31148,19 +31148,19 @@
         <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550074</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
         <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820368</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620014</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639161</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114192</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784857</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647909</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
         <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.180976512274569</v>
+        <v>3.180976512274567</v>
       </c>
       <c r="H5" t="n">
-        <v>32.57717570633194</v>
+        <v>32.57717570633191</v>
       </c>
       <c r="I5" t="n">
-        <v>122.6345969894655</v>
+        <v>122.6345969894654</v>
       </c>
       <c r="J5" t="n">
-        <v>269.981405258664</v>
+        <v>269.9814052586638</v>
       </c>
       <c r="K5" t="n">
-        <v>404.6321410232466</v>
+        <v>404.6321410232462</v>
       </c>
       <c r="L5" t="n">
-        <v>501.9819509607696</v>
+        <v>501.9819509607691</v>
       </c>
       <c r="M5" t="n">
-        <v>558.5516420109324</v>
+        <v>558.5516420109319</v>
       </c>
       <c r="N5" t="n">
-        <v>567.5895915264325</v>
+        <v>567.5895915264321</v>
       </c>
       <c r="O5" t="n">
-        <v>535.9587563325023</v>
+        <v>535.9587563325018</v>
       </c>
       <c r="P5" t="n">
-        <v>457.4283986857238</v>
+        <v>457.4283986857234</v>
       </c>
       <c r="Q5" t="n">
-        <v>343.5096773398906</v>
+        <v>343.5096773398903</v>
       </c>
       <c r="R5" t="n">
-        <v>199.8170158391676</v>
+        <v>199.8170158391674</v>
       </c>
       <c r="S5" t="n">
-        <v>72.48650227345682</v>
+        <v>72.48650227345676</v>
       </c>
       <c r="T5" t="n">
-        <v>13.92472468248194</v>
+        <v>13.92472468248192</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2544781209819655</v>
+        <v>0.2544781209819653</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.701972480128796</v>
+        <v>1.701972480128794</v>
       </c>
       <c r="H6" t="n">
-        <v>16.437471058086</v>
+        <v>16.43747105808599</v>
       </c>
       <c r="I6" t="n">
-        <v>58.59861389917126</v>
+        <v>58.59861389917121</v>
       </c>
       <c r="J6" t="n">
-        <v>160.7990754142737</v>
+        <v>160.7990754142735</v>
       </c>
       <c r="K6" t="n">
-        <v>274.8312315829029</v>
+        <v>274.8312315829027</v>
       </c>
       <c r="L6" t="n">
-        <v>369.5445071437546</v>
+        <v>369.5445071437542</v>
       </c>
       <c r="M6" t="n">
-        <v>431.2410095484233</v>
+        <v>431.2410095484229</v>
       </c>
       <c r="N6" t="n">
-        <v>442.6546758734976</v>
+        <v>442.6546758734972</v>
       </c>
       <c r="O6" t="n">
-        <v>404.9425488138016</v>
+        <v>404.9425488138013</v>
       </c>
       <c r="P6" t="n">
-        <v>325.0020957888049</v>
+        <v>325.0020957888046</v>
       </c>
       <c r="Q6" t="n">
-        <v>217.2552941301249</v>
+        <v>217.2552941301247</v>
       </c>
       <c r="R6" t="n">
-        <v>105.6715895995756</v>
+        <v>105.6715895995755</v>
       </c>
       <c r="S6" t="n">
-        <v>31.61339233923441</v>
+        <v>31.61339233923438</v>
       </c>
       <c r="T6" t="n">
-        <v>6.860143461571766</v>
+        <v>6.86014346157176</v>
       </c>
       <c r="U6" t="n">
-        <v>0.111971873692684</v>
+        <v>0.1119718736926839</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.426876554378901</v>
+        <v>1.4268765543789</v>
       </c>
       <c r="H7" t="n">
-        <v>12.68622972893242</v>
+        <v>12.68622972893241</v>
       </c>
       <c r="I7" t="n">
-        <v>42.91006947168551</v>
+        <v>42.91006947168547</v>
       </c>
       <c r="J7" t="n">
-        <v>100.8801723945883</v>
+        <v>100.8801723945882</v>
       </c>
       <c r="K7" t="n">
-        <v>165.7771124087486</v>
+        <v>165.7771124087485</v>
       </c>
       <c r="L7" t="n">
-        <v>212.1376288210232</v>
+        <v>212.137628821023</v>
       </c>
       <c r="M7" t="n">
-        <v>223.6693857014126</v>
+        <v>223.6693857014124</v>
       </c>
       <c r="N7" t="n">
-        <v>218.3510276350914</v>
+        <v>218.3510276350912</v>
       </c>
       <c r="O7" t="n">
-        <v>201.6825151589378</v>
+        <v>201.6825151589377</v>
       </c>
       <c r="P7" t="n">
-        <v>172.5742334496081</v>
+        <v>172.574233449608</v>
       </c>
       <c r="Q7" t="n">
-        <v>119.4814540216733</v>
+        <v>119.4814540216732</v>
       </c>
       <c r="R7" t="n">
-        <v>64.15755852689129</v>
+        <v>64.15755852689124</v>
       </c>
       <c r="S7" t="n">
-        <v>24.86656686131229</v>
+        <v>24.86656686131227</v>
       </c>
       <c r="T7" t="n">
-        <v>6.096654368709848</v>
+        <v>6.096654368709843</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07782963023884923</v>
+        <v>0.07782963023884917</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869144</v>
+        <v>4.833130601869143</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639239</v>
+        <v>49.49729877639237</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285604</v>
+        <v>186.3292675285603</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203917</v>
+        <v>410.2059184203915</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975127</v>
+        <v>614.7923367975125</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544657</v>
+        <v>762.7042574544654</v>
       </c>
       <c r="M11" t="n">
-        <v>848.655443795456</v>
+        <v>848.6554437954558</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180168</v>
+        <v>862.3875761180165</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956804</v>
+        <v>814.3281336956802</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620359</v>
+        <v>695.0102219620356</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825969</v>
+        <v>521.9237322825968</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696629</v>
+        <v>303.5991401696628</v>
       </c>
       <c r="S11" t="n">
         <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968219</v>
+        <v>21.15702920968218</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495315</v>
+        <v>0.3866504481495314</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858573</v>
+        <v>2.585952849858572</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837096</v>
+        <v>24.97486041837095</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469212</v>
+        <v>89.03390294469207</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193137</v>
+        <v>244.3158348193136</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598381</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747749</v>
+        <v>561.4806834747747</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821481</v>
+        <v>655.2214742821477</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340505</v>
+        <v>672.5632370340503</v>
       </c>
       <c r="O12" t="n">
-        <v>225.1169475382824</v>
+        <v>489.9737736272093</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383446</v>
+        <v>493.8035753383444</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.094612904754</v>
+        <v>330.0946129047539</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605174</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627653</v>
+        <v>48.03293999627652</v>
       </c>
       <c r="T12" t="n">
         <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643799</v>
+        <v>0.1701284769643798</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535157</v>
+        <v>2.167976001535156</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092168</v>
+        <v>19.27527754092167</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798455</v>
+        <v>65.19695102798453</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085356</v>
+        <v>153.2759033085355</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329027</v>
+        <v>251.8793936329026</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100542</v>
+        <v>322.3189048100541</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770064</v>
+        <v>339.8400926770062</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531029</v>
+        <v>331.7594548531027</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806239</v>
+        <v>306.4335533806238</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493065</v>
+        <v>262.2068429493063</v>
       </c>
       <c r="Q13" t="n">
         <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811711</v>
+        <v>97.48008457811707</v>
       </c>
       <c r="S13" t="n">
-        <v>37.7819090449354</v>
+        <v>37.78190904493538</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377485</v>
+        <v>9.263170188377481</v>
       </c>
       <c r="U13" t="n">
         <v>0.1182532364473723</v>
@@ -32072,16 +32072,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338202</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
@@ -32093,10 +32093,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>484.1423712692491</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963271</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>354.9153144485699</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,25 +33029,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>170.9292585737929</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,7 +33500,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33740,25 +33740,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,7 +33977,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,16 +34208,16 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>218.6425359394819</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34229,10 +34229,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>216.857296338707</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868023</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788327</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504114</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915984</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406597</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781463</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
         <v>117.596605360629</v>
@@ -34787,16 +34787,16 @@
         <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848228</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855691</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764993</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34863,7 +34863,7 @@
         <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>187.52558716632</v>
+        <v>99.08507489005521</v>
       </c>
       <c r="N4" t="n">
         <v>187.52558716632</v>
@@ -34872,7 +34872,7 @@
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>28.45844197068235</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>88.9355007319777</v>
+        <v>88.93550073197747</v>
       </c>
       <c r="K5" t="n">
-        <v>184.542289978266</v>
+        <v>184.5422899782657</v>
       </c>
       <c r="L5" t="n">
-        <v>266.2155359907823</v>
+        <v>266.2155359907819</v>
       </c>
       <c r="M5" t="n">
-        <v>328.2054087836597</v>
+        <v>328.2054087836592</v>
       </c>
       <c r="N5" t="n">
-        <v>338.1765279298416</v>
+        <v>338.1765279298411</v>
       </c>
       <c r="O5" t="n">
-        <v>305.8605449108155</v>
+        <v>305.8605449108151</v>
       </c>
       <c r="P5" t="n">
-        <v>226.1954029304542</v>
+        <v>226.1954029304538</v>
       </c>
       <c r="Q5" t="n">
-        <v>121.2039874654411</v>
+        <v>121.2039874654409</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>160.0524840880158</v>
+        <v>33.96144874760682</v>
       </c>
       <c r="K6" t="n">
-        <v>337.2251350648378</v>
+        <v>136.9897926085437</v>
       </c>
       <c r="L6" t="n">
-        <v>230.9901273638804</v>
+        <v>469.5770017178629</v>
       </c>
       <c r="M6" t="n">
-        <v>289.106975626405</v>
+        <v>289.1069756264046</v>
       </c>
       <c r="N6" t="n">
-        <v>311.3129637901643</v>
+        <v>311.312963790164</v>
       </c>
       <c r="O6" t="n">
-        <v>262.3463043693572</v>
+        <v>262.3463043693569</v>
       </c>
       <c r="P6" t="n">
-        <v>191.0276883744746</v>
+        <v>191.0276883744743</v>
       </c>
       <c r="Q6" t="n">
-        <v>77.27352004410338</v>
+        <v>165.0130234868219</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>7.520992277915525</v>
+        <v>7.52099227791544</v>
       </c>
       <c r="K7" t="n">
-        <v>143.5076205828658</v>
+        <v>143.5076205828657</v>
       </c>
       <c r="L7" t="n">
-        <v>239.7276540813393</v>
+        <v>239.7276540813392</v>
       </c>
       <c r="M7" t="n">
-        <v>263.2532626632532</v>
+        <v>263.253262663253</v>
       </c>
       <c r="N7" t="n">
-        <v>262.48320001432</v>
+        <v>262.4832000143198</v>
       </c>
       <c r="O7" t="n">
-        <v>226.2676430729775</v>
+        <v>226.2676430729773</v>
       </c>
       <c r="P7" t="n">
-        <v>169.8527927145016</v>
+        <v>169.8527927145014</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.31941076997887</v>
+        <v>33.31941076997877</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313203</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35267,10 +35267,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>514.7099619750469</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937054</v>
+        <v>229.1600138937052</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525321</v>
+        <v>394.7024857525319</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844786</v>
+        <v>526.9378424844781</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681833</v>
+        <v>618.3092105681831</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214258</v>
+        <v>632.9745125214256</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739937</v>
+        <v>584.2299222739935</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067663</v>
+        <v>463.7772262067661</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081474</v>
+        <v>299.6180424081473</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553079</v>
+        <v>88.01360235553068</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.478208152647</v>
+        <v>117.4782081526469</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854791</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949007</v>
+        <v>422.9263036949005</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601297</v>
+        <v>513.0874403601294</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507173</v>
+        <v>541.221524950717</v>
       </c>
       <c r="O12" t="n">
-        <v>82.52070309383795</v>
+        <v>347.3775291827649</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240143</v>
+        <v>359.8291679240141</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187325</v>
+        <v>190.1128388187324</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655342</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186279</v>
+        <v>59.91672319186273</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070198</v>
+        <v>229.6099018070197</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703703</v>
+        <v>349.9089300703702</v>
       </c>
       <c r="M13" t="n">
-        <v>379.423969638847</v>
+        <v>379.4239696388468</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323314</v>
+        <v>375.8916272323313</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946636</v>
+        <v>331.0186812946635</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022142</v>
+        <v>259.4854022141998</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776314</v>
+        <v>95.37638356776309</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394598</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35741,10 +35741,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>350.1679638549188</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164529</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295339</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
         <v>426.2724270010451</v>
@@ -37002,7 +37002,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37148,7 +37148,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,7 +37625,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37877,10 +37877,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>90.01966967204032</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
